--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -7,19 +7,16 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="All Predictors" sheetId="2" r:id="rId2"/>
+    <sheet name="Only Dynamic" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Predictor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>128B</t>
   </si>
@@ -51,14 +48,77 @@
     <t>GShare</t>
   </si>
   <si>
-    <t>TwoLevel</t>
+    <t>32B</t>
+  </si>
+  <si>
+    <t>64B</t>
+  </si>
+  <si>
+    <t>Predictor \ BHT Size</t>
+  </si>
+  <si>
+    <t>Two-Level</t>
+  </si>
+  <si>
+    <t>Always Taken</t>
+  </si>
+  <si>
+    <t>Always Not-Taken</t>
+  </si>
+  <si>
+    <t>Gshare</t>
+  </si>
+  <si>
+    <t>Sample Standard Deviation, s:</t>
+  </si>
+  <si>
+    <t>Sample Standard Variance, s2</t>
+  </si>
+  <si>
+    <t>Total Numbers, N</t>
+  </si>
+  <si>
+    <t>Sum:</t>
+  </si>
+  <si>
+    <t>Mean (Average):</t>
+  </si>
+  <si>
+    <t>Population Standard Deviation, σ</t>
+  </si>
+  <si>
+    <t>Population Standard Variance, σ2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>S Deviation</t>
+  </si>
+  <si>
+    <t>S Variance</t>
+  </si>
+  <si>
+    <t>P Deviation</t>
+  </si>
+  <si>
+    <t>Predictor Size [32B - 16M]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P Variance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +126,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -83,18 +171,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -118,6 +331,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correct Predictions By BHT Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -129,42 +361,48 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Data!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bimodal</c:v>
+                  <c:v>Always Taken</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Data!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>128B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>256B</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>512B</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1K</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2K</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>4K</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>8K</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>16K</c:v>
                 </c:pt>
               </c:strCache>
@@ -172,33 +410,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:f>Data!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.040000000000006</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.87</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.05</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.05</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.12</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.52</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.15</c:v>
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.71</c:v>
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.840000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -210,42 +454,48 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Data!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GShare</c:v>
+                  <c:v>Always Not-Taken</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Data!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>128B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>256B</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>512B</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1K</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2K</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>4K</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>8K</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>16K</c:v>
                 </c:pt>
               </c:strCache>
@@ -253,33 +503,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:f>Data!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.349999999999994</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.260000000000005</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.930000000000007</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.64</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.95</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.77</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.72</c:v>
+                  <c:v>62.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.24</c:v>
+                  <c:v>62.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,42 +547,48 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Data!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TwoLevel</c:v>
+                  <c:v>Bimodal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:f>Data!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>128B</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>256B</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>512B</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1K</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2K</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>4K</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>8K</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>16K</c:v>
                 </c:pt>
               </c:strCache>
@@ -334,33 +596,207 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:f>Data!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>75.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>GShare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>77.13</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>80.92</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>84.78</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>87.33</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>88.86</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>89.74</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47491712"/>
-        <c:axId val="47505792"/>
+        <c:axId val="46432256"/>
+        <c:axId val="46433792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47491712"/>
+        <c:axId val="46432256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47505792"/>
+        <c:crossAx val="46433792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -398,19 +834,434 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47505792"/>
+        <c:axId val="46433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prediction Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46432256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Correct Predictions By BHT Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>75.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GShare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>73.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Two-Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="46862336"/>
+        <c:axId val="46863872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46862336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46863872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46863872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
           <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Prediction Rate (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47491712"/>
+        <c:crossAx val="46862336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -437,20 +1288,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -465,6 +1318,74 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
+  <tableColumns count="11">
+    <tableColumn id="1" name="Predictor \ BHT Size" dataDxfId="7"/>
+    <tableColumn id="2" name="32B" dataDxfId="6"/>
+    <tableColumn id="3" name="64B" dataDxfId="5"/>
+    <tableColumn id="4" name="128B"/>
+    <tableColumn id="5" name="256B"/>
+    <tableColumn id="6" name="512B"/>
+    <tableColumn id="7" name="1K"/>
+    <tableColumn id="8" name="2K"/>
+    <tableColumn id="9" name="4K"/>
+    <tableColumn id="10" name="8K"/>
+    <tableColumn id="11" name="16K"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A8:D15" totalsRowShown="0" headerRowDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Predictor Size [32B - 16M]" dataDxfId="3"/>
+    <tableColumn id="2" name="Bimodal" dataDxfId="2"/>
+    <tableColumn id="3" name="Gshare" dataDxfId="1"/>
+    <tableColumn id="4" name="Two-Level" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,136 +1675,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="C2" s="4">
+        <f>$B$2</f>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:K2" si="0">$B$2</f>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>37.840000000000003</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>62.16</v>
+      </c>
+      <c r="C3" s="4">
+        <f>$B$3</f>
+        <v>62.16</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:K3" si="1">$B$3</f>
+        <v>62.16</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>62.16</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="E4">
+        <v>77.87</v>
+      </c>
+      <c r="F4">
+        <v>81.05</v>
+      </c>
+      <c r="G4">
+        <v>84.05</v>
+      </c>
+      <c r="H4">
+        <v>86.12</v>
+      </c>
+      <c r="I4">
+        <v>87.52</v>
+      </c>
+      <c r="J4">
+        <v>88.15</v>
+      </c>
+      <c r="K4">
+        <v>88.71</v>
+      </c>
+      <c r="L4" s="15">
+        <f>AVERAGE(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>83.563750000000013</v>
+      </c>
+      <c r="M4" s="15">
+        <f>_xlfn.STDEV.S(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>5.0896588083794247</v>
+      </c>
+      <c r="N4" s="15">
+        <f>POWER(M4,2)</f>
+        <v>25.904626785714267</v>
+      </c>
+      <c r="O4" s="15">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>4.7609398691329821</v>
+      </c>
+      <c r="P4" s="16">
+        <f>POWER(O4,2)</f>
+        <v>22.666548437499976</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>75.040000000000006</v>
-      </c>
-      <c r="C2">
-        <v>77.87</v>
-      </c>
-      <c r="D2">
-        <v>81.05</v>
-      </c>
-      <c r="E2">
-        <v>84.05</v>
-      </c>
-      <c r="F2">
-        <v>86.12</v>
-      </c>
-      <c r="G2">
-        <v>87.52</v>
-      </c>
-      <c r="H2">
-        <v>88.15</v>
-      </c>
-      <c r="I2">
-        <v>88.71</v>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="E5">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="F5">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="G5">
+        <v>83.64</v>
+      </c>
+      <c r="H5">
+        <v>85.95</v>
+      </c>
+      <c r="I5">
+        <v>87.77</v>
+      </c>
+      <c r="J5">
+        <v>88.72</v>
+      </c>
+      <c r="K5">
+        <v>89.24</v>
+      </c>
+      <c r="L5" s="17">
+        <f>AVERAGE(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>83.107500000000002</v>
+      </c>
+      <c r="M5" s="17">
+        <f>_xlfn.STDEV.S(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>5.9928951982445717</v>
+      </c>
+      <c r="N5" s="17">
+        <f>POWER(M5,2)</f>
+        <v>35.914792857142842</v>
+      </c>
+      <c r="O5" s="17">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[128B]:[16K]])</f>
+        <v>5.6058401466684717</v>
+      </c>
+      <c r="P5" s="18">
+        <f>POWER(O5,2)</f>
+        <v>31.425443749999992</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>73.349999999999994</v>
-      </c>
-      <c r="C3">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="D3">
-        <v>79.930000000000007</v>
-      </c>
-      <c r="E3">
-        <v>83.64</v>
-      </c>
-      <c r="F3">
-        <v>85.95</v>
-      </c>
-      <c r="G3">
-        <v>87.77</v>
-      </c>
-      <c r="H3">
-        <v>88.72</v>
-      </c>
-      <c r="I3">
-        <v>89.24</v>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70.34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>73.13</v>
+      </c>
+      <c r="D6">
+        <v>77.13</v>
+      </c>
+      <c r="E6">
+        <v>80.92</v>
+      </c>
+      <c r="F6">
+        <v>84.78</v>
+      </c>
+      <c r="G6">
+        <v>87.33</v>
+      </c>
+      <c r="H6">
+        <v>88.86</v>
+      </c>
+      <c r="I6">
+        <v>89.74</v>
+      </c>
+      <c r="L6" s="15">
+        <f>AVERAGE(Table1[[#This Row],[32B]:[4K]])</f>
+        <v>81.528749999999988</v>
+      </c>
+      <c r="M6" s="15">
+        <f>_xlfn.STDEV.S(Table1[[#This Row],[32B]:[4K]])</f>
+        <v>7.3760586407259918</v>
+      </c>
+      <c r="N6" s="15">
+        <f>POWER(M6,2)</f>
+        <v>54.406241071428568</v>
+      </c>
+      <c r="O6" s="15">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[32B]:[4K]])</f>
+        <v>6.8996710745875411</v>
+      </c>
+      <c r="P6" s="16">
+        <f>POWER(O6,2)</f>
+        <v>47.605460937499991</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>77.13</v>
-      </c>
-      <c r="C4">
-        <v>80.92</v>
-      </c>
-      <c r="D4">
-        <v>84.78</v>
-      </c>
-      <c r="E4">
-        <v>87.33</v>
-      </c>
-      <c r="F4">
-        <v>88.86</v>
-      </c>
-      <c r="G4">
-        <v>89.74</v>
-      </c>
-      <c r="H4">
-        <v>90.04</v>
-      </c>
-      <c r="I4">
-        <v>90.27</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.183597551928</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7.1035532991372996</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6.2988404112436003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
+        <v>38.236878684211</v>
+      </c>
+      <c r="C10" s="9">
+        <v>50.460469473684</v>
+      </c>
+      <c r="D10" s="9">
+        <v>39.675390526316001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1700.39</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1700.16</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1736.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9">
+        <v>85.019499999999994</v>
+      </c>
+      <c r="C13" s="9">
+        <v>85.007999999999996</v>
+      </c>
+      <c r="D13" s="9">
+        <v>86.816999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6.0270253649707</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6.9236873124080001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6.1393502099164001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9">
+        <v>36.32503475</v>
+      </c>
+      <c r="C15" s="9">
+        <v>47.937446000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>37.691620999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -891,11 +2137,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -903,10 +2152,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>